--- a/Libro4.xlsx
+++ b/Libro4.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{754F7E55-34C7-46AB-9055-A925748815CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sierratextiles-my.sharepoint.com/personal/david_sandoval_sierratextiles_com/Documents/Documentos/PARA/projects/test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{754F7E55-34C7-46AB-9055-A925748815CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95204C8B-BF0B-4C73-82C5-6C2116AC0E69}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BAACD63-8CA6-42F5-A3AB-E0CDEF267F96}"/>
   </bookViews>
@@ -217,12 +222,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,16 +248,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D78262-E5FE-4CA9-8FBA-CB150C82F682}">
   <dimension ref="C2:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,7 +605,7 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -604,7 +613,7 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -612,7 +621,7 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -620,7 +629,7 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -628,7 +637,7 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -636,31 +645,31 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -668,87 +677,87 @@
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -756,31 +765,31 @@
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>34</v>
       </c>
     </row>
@@ -788,191 +797,191 @@
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>49</v>
       </c>
     </row>
@@ -980,7 +989,7 @@
       <c r="C50" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>49</v>
       </c>
     </row>
@@ -988,7 +997,7 @@
       <c r="C51" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>49</v>
       </c>
     </row>
@@ -996,7 +1005,7 @@
       <c r="C52" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1004,7 +1013,7 @@
       <c r="C53" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1012,7 +1021,7 @@
       <c r="C54" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1020,7 +1029,7 @@
       <c r="C55" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1028,7 +1037,7 @@
       <c r="C56" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" t="s">
         <v>34</v>
       </c>
     </row>
